--- a/jour28.xlsx
+++ b/jour28.xlsx
@@ -40,124 +40,124 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Dante']</t>
-  </si>
-  <si>
-    <t>['Bamba']</t>
-  </si>
-  <si>
-    <t>['Coco', 'Simon']</t>
-  </si>
-  <si>
-    <t>['Le_Goff', 'Talbi', 'Le_Fee']</t>
-  </si>
-  <si>
-    <t>['Perrin']</t>
-  </si>
-  <si>
-    <t>['Ounahi', 'Lopez', 'Bailly', 'Gigot']</t>
-  </si>
-  <si>
-    <t>['Dallinga', 'Dejaegere']</t>
-  </si>
-  <si>
-    <t>['Jeanvier']</t>
-  </si>
-  <si>
-    <t>['Balde', 'Ugbo', 'Ugbo']</t>
-  </si>
-  <si>
-    <t>['Cisse', 'Rajot']</t>
+    <t>['Clauss']</t>
+  </si>
+  <si>
+    <t>['Sylla', 'Valencia']</t>
+  </si>
+  <si>
+    <t>['Onaiwu', 'Spierings']</t>
+  </si>
+  <si>
+    <t>['Da_Costa']</t>
+  </si>
+  <si>
+    <t>['Ben_Seguir', 'Serrano']</t>
+  </si>
+  <si>
+    <t>['Bellegarde', 'Lienard']</t>
+  </si>
+  <si>
+    <t>['Brassier']</t>
+  </si>
+  <si>
+    <t>['Chavalerin', 'Odobert', 'Ugbo']</t>
+  </si>
+  <si>
+    <t>['Lebas', 'Michelin']</t>
+  </si>
+  <si>
+    <t>['Le_Goff', 'Ponceau']</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Lorient</t>
   </si>
   <si>
     <t>Nice</t>
   </si>
   <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
     <t>Angers</t>
   </si>
   <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
     <t>Clermont</t>
   </si>
   <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Rennes</t>
+    <t>Reims</t>
   </si>
   <si>
     <t>PSG</t>
   </si>
   <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
     <t>Montpellier</t>
   </si>
   <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>['Le_Douaron']</t>
-  </si>
-  <si>
-    <t>['Cabella']</t>
-  </si>
-  <si>
-    <t>['Assignon']</t>
-  </si>
-  <si>
-    <t>['Verrati', 'Neymar']</t>
-  </si>
-  <si>
-    <t>['Serhuis']</t>
-  </si>
-  <si>
-    <t>['Ben_Seguir', 'Pele']</t>
-  </si>
-  <si>
-    <t>['Michelin', "N'Diaye"]</t>
-  </si>
-  <si>
-    <t>['Tchato']</t>
+    <t>['Laborde', 'Laborde', 'Pepe', 'Laborde']</t>
+  </si>
+  <si>
+    <t>['Castelletto']</t>
+  </si>
+  <si>
+    <t>['Gusto', 'Caqueret']</t>
+  </si>
+  <si>
+    <t>['Andre', 'Gudmundsson']</t>
+  </si>
+  <si>
+    <t>['Rodon', 'Majer', 'Rodon']</t>
+  </si>
+  <si>
+    <t>['Alioui', 'Sima']</t>
+  </si>
+  <si>
+    <t>['Wieteska', 'Versini', 'Cisse']</t>
+  </si>
+  <si>
+    <t>['Munetsi', 'Flips', 'Serhuis']</t>
+  </si>
+  <si>
+    <t>['Messi', 'Mendes', 'Kipembe']</t>
   </si>
   <si>
     <t>[]</t>
-  </si>
-  <si>
-    <t>['Varane']</t>
   </si>
 </sst>
 </file>
@@ -564,7 +564,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G2" t="s">
         <v>28</v>
@@ -573,7 +573,7 @@
         <v>38</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -581,7 +581,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -590,7 +590,7 @@
         <v>19</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -622,7 +622,7 @@
         <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" t="s">
         <v>30</v>
@@ -631,7 +631,7 @@
         <v>40</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -639,7 +639,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -648,7 +648,7 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -668,7 +668,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -677,10 +677,10 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
@@ -689,7 +689,7 @@
         <v>42</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -697,7 +697,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -706,7 +706,7 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -726,7 +726,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -735,10 +735,10 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G8" t="s">
         <v>34</v>
@@ -747,7 +747,7 @@
         <v>44</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -755,7 +755,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
@@ -764,10 +764,10 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G9" t="s">
         <v>35</v>
@@ -776,7 +776,7 @@
         <v>45</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -784,7 +784,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -793,10 +793,10 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G10" t="s">
         <v>36</v>
@@ -805,7 +805,7 @@
         <v>46</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -825,7 +825,7 @@
         <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="s">
         <v>37</v>
@@ -834,7 +834,7 @@
         <v>47</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/jour28.xlsx
+++ b/jour28.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>Points dom</t>
   </si>
@@ -40,124 +40,121 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Clauss']</t>
-  </si>
-  <si>
-    <t>['Sylla', 'Valencia']</t>
-  </si>
-  <si>
-    <t>['Onaiwu', 'Spierings']</t>
-  </si>
-  <si>
-    <t>['Da_Costa']</t>
-  </si>
-  <si>
-    <t>['Ben_Seguir', 'Serrano']</t>
-  </si>
-  <si>
-    <t>['Bellegarde', 'Lienard']</t>
-  </si>
-  <si>
-    <t>['Brassier']</t>
-  </si>
-  <si>
-    <t>['Chavalerin', 'Odobert', 'Ugbo']</t>
-  </si>
-  <si>
-    <t>['Lebas', 'Michelin']</t>
-  </si>
-  <si>
-    <t>['Le_Goff', 'Ponceau']</t>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>['Bailly', 'Gigot']</t>
+  </si>
+  <si>
+    <t>['Da_Costa', 'Dembele']</t>
+  </si>
+  <si>
+    <t>['Girotto', 'Castelletto', 'Pallois']</t>
+  </si>
+  <si>
+    <t>['Gastien', 'Boyer', 'Cisse', 'Wieteska']</t>
+  </si>
+  <si>
+    <t>['Kalimuendo', 'Santamaria']</t>
+  </si>
+  <si>
+    <t>['Aouar', 'Sanchez', 'Tolisso']</t>
+  </si>
+  <si>
+    <t>['Ganiou', 'Valencia']</t>
+  </si>
+  <si>
+    <t>['Khazri']</t>
+  </si>
+  <si>
+    <t>Brest</t>
   </si>
   <si>
     <t>OM</t>
   </si>
   <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
     <t>Lens</t>
   </si>
   <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
     <t>Toulouse</t>
   </si>
   <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
     <t>AS Monaco</t>
   </si>
   <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
     <t>Strasbourg</t>
   </si>
   <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
     <t>Ajaccio</t>
   </si>
   <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
     <t>Lille</t>
   </si>
   <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>['Laborde', 'Laborde', 'Pepe', 'Laborde']</t>
-  </si>
-  <si>
-    <t>['Castelletto']</t>
-  </si>
-  <si>
-    <t>['Gusto', 'Caqueret']</t>
-  </si>
-  <si>
-    <t>['Andre', 'Gudmundsson']</t>
-  </si>
-  <si>
-    <t>['Rodon', 'Majer', 'Rodon']</t>
-  </si>
-  <si>
-    <t>['Alioui', 'Sima']</t>
-  </si>
-  <si>
-    <t>['Wieteska', 'Versini', 'Cisse']</t>
-  </si>
-  <si>
-    <t>['Munetsi', 'Flips', 'Serhuis']</t>
-  </si>
-  <si>
-    <t>['Messi', 'Mendes', 'Kipembe']</t>
-  </si>
-  <si>
-    <t>[]</t>
+    <t>['Conte', 'Ripart']</t>
+  </si>
+  <si>
+    <t>['Sanches']</t>
+  </si>
+  <si>
+    <t>['Desler', 'Van_den_Boomen', 'Healey', 'Spierings', 'Van_den_Boomen']</t>
+  </si>
+  <si>
+    <t>['Ben_Seguir', 'Aguilar']</t>
+  </si>
+  <si>
+    <t>['Ito', 'Balogin']</t>
+  </si>
+  <si>
+    <t>['Sima']</t>
+  </si>
+  <si>
+    <t>['Laborde', 'Laborde']</t>
+  </si>
+  <si>
+    <t>['Djiku', 'Djiku']</t>
+  </si>
+  <si>
+    <t>["N'Diaye", 'Roure']</t>
+  </si>
+  <si>
+    <t>['David', 'Cabella']</t>
   </si>
 </sst>
 </file>
@@ -552,28 +549,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -587,7 +584,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -596,10 +593,10 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -616,22 +613,22 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -639,25 +636,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I5">
         <v>2</v>
@@ -668,28 +665,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -703,22 +700,22 @@
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>2</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -726,28 +723,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -755,28 +752,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -784,28 +781,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -813,28 +810,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/jour28.xlsx
+++ b/jour28.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
+  <si>
+    <t>Score dom</t>
+  </si>
   <si>
     <t>Points dom</t>
   </si>
@@ -40,121 +43,118 @@
     <t>Points exté</t>
   </si>
   <si>
+    <t>Score exte</t>
+  </si>
+  <si>
+    <t>['Ganago', 'Delort', 'Girotto', 'Simon']</t>
+  </si>
+  <si>
+    <t>['Silla', 'Hamouma', 'Hamouma']</t>
+  </si>
+  <si>
+    <t>['Camara', 'Masson', 'Guillaume']</t>
+  </si>
+  <si>
+    <t>['Munetsi', 'Balogin']</t>
+  </si>
+  <si>
+    <t>['Matsima', 'Pelon']</t>
+  </si>
+  <si>
+    <t>['Balde', 'Lopez']</t>
+  </si>
+  <si>
+    <t>['Gradit', 'Varane']</t>
+  </si>
+  <si>
+    <t>['Cherki']</t>
+  </si>
+  <si>
+    <t>['Healey']</t>
+  </si>
+  <si>
+    <t>['Cabella']</t>
+  </si>
+  <si>
+    <t>['Duverne']</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>['Gomes', 'Cabella', 'Gomes']</t>
+  </si>
+  <si>
+    <t>['Danois', 'Autret']</t>
+  </si>
+  <si>
+    <t>['Le_Marchand', 'Delaine']</t>
+  </si>
+  <si>
+    <t>['Pelon']</t>
+  </si>
+  <si>
+    <t>['Spierings', 'ChaÃ¯bi', 'Ratao']</t>
+  </si>
+  <si>
+    <t>['Perrin', 'Delaine', 'H.Diallo']</t>
+  </si>
+  <si>
+    <t>['Coco']</t>
+  </si>
+  <si>
+    <t>['Beka']</t>
+  </si>
+  <si>
+    <t>['Valencia']</t>
+  </si>
+  <si>
+    <t>['Danois']</t>
+  </si>
+  <si>
     <t>[]</t>
-  </si>
-  <si>
-    <t>['Bailly', 'Gigot']</t>
-  </si>
-  <si>
-    <t>['Da_Costa', 'Dembele']</t>
-  </si>
-  <si>
-    <t>['Girotto', 'Castelletto', 'Pallois']</t>
-  </si>
-  <si>
-    <t>['Gastien', 'Boyer', 'Cisse', 'Wieteska']</t>
-  </si>
-  <si>
-    <t>['Kalimuendo', 'Santamaria']</t>
-  </si>
-  <si>
-    <t>['Aouar', 'Sanchez', 'Tolisso']</t>
-  </si>
-  <si>
-    <t>['Ganiou', 'Valencia']</t>
-  </si>
-  <si>
-    <t>['Khazri']</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>['Conte', 'Ripart']</t>
-  </si>
-  <si>
-    <t>['Sanches']</t>
-  </si>
-  <si>
-    <t>['Desler', 'Van_den_Boomen', 'Healey', 'Spierings', 'Van_den_Boomen']</t>
-  </si>
-  <si>
-    <t>['Ben_Seguir', 'Aguilar']</t>
-  </si>
-  <si>
-    <t>['Ito', 'Balogin']</t>
-  </si>
-  <si>
-    <t>['Sima']</t>
-  </si>
-  <si>
-    <t>['Laborde', 'Laborde']</t>
-  </si>
-  <si>
-    <t>['Djiku', 'Djiku']</t>
-  </si>
-  <si>
-    <t>["N'Diaye", 'Roure']</t>
-  </si>
-  <si>
-    <t>['David', 'Cabella']</t>
   </si>
 </sst>
 </file>
@@ -512,13 +512,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -543,295 +543,396 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>50</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
+      <c r="B4">
+        <v>40</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
         <v>2</v>
       </c>
-      <c r="G2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="H4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" t="s">
         <v>38</v>
       </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>5</v>
-      </c>
-      <c r="G4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
+        <v>47</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
       </c>
       <c r="F5">
         <v>2</v>
       </c>
-      <c r="G5" t="s">
-        <v>30</v>
+      <c r="G5">
+        <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
+        <v>44</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <v>4</v>
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
       </c>
       <c r="F6">
         <v>2</v>
       </c>
-      <c r="G6" t="s">
-        <v>31</v>
+      <c r="G6">
+        <v>3</v>
       </c>
       <c r="H6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>42</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" t="s">
         <v>41</v>
       </c>
-      <c r="I6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="K7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
       </c>
       <c r="F8">
         <v>2</v>
       </c>
-      <c r="G8" t="s">
-        <v>33</v>
+      <c r="G8">
+        <v>1</v>
       </c>
       <c r="H8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>41</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" t="s">
         <v>43</v>
       </c>
-      <c r="I8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1">
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="B10">
+        <v>41</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" t="s">
         <v>44</v>
       </c>
-      <c r="I9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>38</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>37</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
         <v>35</v>
       </c>
-      <c r="H10" t="s">
-        <v>45</v>
-      </c>
-      <c r="I10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-      <c r="G11" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="I12" t="s">
         <v>46</v>
       </c>
-      <c r="I11">
-        <v>2</v>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
